--- a/settings/zh-CN/template_goods.xlsx
+++ b/settings/zh-CN/template_goods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projects\game_mod\against_storm\export_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projects\game_mod\against_storm\export_analysis\settings\zh-CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04359692-13DA-4401-9D9B-346776828CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC43C798-C1F8-4BCD-93A7-AA566BA82D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>游戏版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>https://github.com/Forwindzz/ATSUnpackToExcel</t>
+  </si>
+  <si>
+    <t>m0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新游戏1.5内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -151,9 +159,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,26 +456,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -476,10 +484,10 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I3" s="1">
         <v>45570</v>
@@ -489,7 +497,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -526,6 +534,16 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
